--- a/Example_input_data/GISP2_input_complex.xlsx
+++ b/Example_input_data/GISP2_input_complex.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\RSJ\Age_Calcs\iceTEA\iceTEA_v0.3\Example_input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\RSJ\Age_Calcs\iceTEA\iceTEA_v0.8\Example_input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,9 +44,6 @@
     <t>Year the sample was collected</t>
   </si>
   <si>
-    <t>26-Be conc. (atoms/g)</t>
-  </si>
-  <si>
     <t>10-Be conc. (atoms/g)</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>Relative position - NaN if not relevant</t>
+  </si>
+  <si>
+    <t>26-Al conc. (atoms/g)</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +485,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -494,13 +494,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -512,25 +512,25 @@
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3">
         <v>72.579599999999999</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="5">
         <f>O2-N2</f>
@@ -592,7 +592,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3">
         <v>72.579599999999999</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="5">
         <f>O3-N3</f>
@@ -646,7 +646,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3">
         <v>72.579599999999999</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" ref="G4:G15" si="0">O4-N4</f>
@@ -700,7 +700,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3">
         <v>72.579599999999999</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="0"/>
@@ -754,7 +754,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
         <v>72.579599999999999</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="0"/>
@@ -808,7 +808,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3">
         <v>72.579599999999999</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="0"/>
@@ -862,7 +862,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3">
         <v>72.579599999999999</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
@@ -916,7 +916,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3">
         <v>72.579599999999999</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
@@ -970,7 +970,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3">
         <v>72.579599999999999</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3">
         <v>72.579599999999999</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3">
         <v>72.579599999999999</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3">
         <v>72.579599999999999</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3">
         <v>72.579599999999999</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3">
         <v>72.579599999999999</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
